--- a/08-agosto/6-portal-cliente/SINDICATO.xlsx
+++ b/08-agosto/6-portal-cliente/SINDICATO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA271145-870C-4473-89B4-C3714ED9E519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658CB32-EF0D-49C1-9407-9E5466513E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="855" windowWidth="7500" windowHeight="12960" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
+    <workbookView xWindow="-14085" yWindow="555" windowWidth="12195" windowHeight="15075" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>DEBARRENECHEA</t>
   </si>
@@ -54,13 +54,22 @@
     <t>TODO NA</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>ORAINDE</t>
   </si>
   <si>
     <t>SINDICATO JULIO 2025</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>FENIX</t>
+  </si>
+  <si>
+    <t>LA ESTRELLA</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -101,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,8 +154,12 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,12 +169,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A6A60-61D1-4F77-8BCE-74EFDBEC8B99}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,145 +497,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>45900</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
+      <c r="B4" s="10">
+        <v>26787.52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
+      <c r="B5" s="10">
+        <v>6672.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
+      <c r="B6" s="10">
+        <v>9790.24</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(B4:B6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+        <v>43250.26</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
-        <v>0</v>
+      <c r="B9" s="4">
+        <v>25149.78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9">
-        <v>0</v>
+      <c r="B10" s="10">
+        <v>6278.21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9">
-        <v>0</v>
+      <c r="B11" s="10">
+        <v>9790.24</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(B9:B11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+        <v>41218.229999999996</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9">
-        <v>0</v>
+      <c r="B14" s="10">
+        <v>102158.48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="9">
-        <v>0</v>
+      <c r="B15" s="10">
+        <v>25474.32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
-        <v>0</v>
+      <c r="B16" s="4">
+        <v>29370.720000000001</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(B14:B16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <f>SUM(C4:C16)</f>
-        <v>0</v>
+        <v>157003.51999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12663.19</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3157.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4895.12</v>
+      </c>
+      <c r="C21" s="1">
+        <f>+B19+B20+B21</f>
+        <v>20716.009999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>74234.710000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>9255.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4895.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>16018.55</v>
+      </c>
+      <c r="C27" s="1">
+        <f>+B24+B25+B26+B27</f>
+        <v>104403.98000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <f>+C6+C11+C16+C21+C27</f>
+        <v>366592</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/08-agosto/6-portal-cliente/SINDICATO.xlsx
+++ b/08-agosto/6-portal-cliente/SINDICATO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658CB32-EF0D-49C1-9407-9E5466513E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196D601-768F-4857-ADBF-CBFE008B04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14085" yWindow="555" windowWidth="12195" windowHeight="15075" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
+    <workbookView xWindow="-26670" yWindow="375" windowWidth="6015" windowHeight="15075" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,18 +110,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,15 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,8 +160,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +486,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A2" sqref="A2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +495,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>45900</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5">
+        <v>45947</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10">
-        <v>26787.52</v>
+        <v>27493.86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>6672.5</v>
+        <v>6660.32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,25 +535,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="10">
-        <v>9790.24</v>
+        <v>10809.75</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(B4:B6)</f>
-        <v>43250.26</v>
-      </c>
+        <v>44963.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>25149.78</v>
+      <c r="B9" s="10">
+        <v>26113.66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="10">
-        <v>6278.21</v>
+        <v>6327.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,25 +573,29 @@
         <v>3</v>
       </c>
       <c r="B11" s="10">
-        <v>9790.24</v>
+        <v>10809.75</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(B9:B11)</f>
-        <v>41218.229999999996</v>
-      </c>
+        <v>43250.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <v>102158.48</v>
+        <v>134626.22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,84 +603,92 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <v>25474.32</v>
+        <v>32648.87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
-        <v>29370.720000000001</v>
+      <c r="B16" s="10">
+        <v>43239</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(B14:B16)</f>
-        <v>157003.51999999999</v>
-      </c>
+        <v>210514.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4">
-        <v>12663.19</v>
+      <c r="B19" s="10">
+        <v>13121.78</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4">
-        <v>3157.7</v>
+      <c r="B20" s="10">
+        <v>3182.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4">
-        <v>4895.12</v>
+      <c r="B21" s="10">
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <f>+B19+B20+B21</f>
-        <v>20716.009999999998</v>
-      </c>
+        <v>16304.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="4">
-        <v>74234.710000000006</v>
+      <c r="B24" s="10">
+        <v>76469.649999999994</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4">
-        <v>9255.6</v>
+      <c r="B25" s="10">
+        <v>9272.52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4">
-        <v>4895.12</v>
+      <c r="B26" s="10">
+        <v>5404.88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,11 +696,11 @@
         <v>9</v>
       </c>
       <c r="B27" s="4">
-        <v>16018.55</v>
+        <v>28346.84</v>
       </c>
       <c r="C27" s="1">
         <f>+B24+B25+B26+B27</f>
-        <v>104403.98000000001</v>
+        <v>119493.89</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +709,7 @@
       </c>
       <c r="C29" s="1">
         <f>+C6+C11+C16+C21+C27</f>
-        <v>366592</v>
+        <v>434526.74</v>
       </c>
     </row>
   </sheetData>

--- a/08-agosto/6-portal-cliente/SINDICATO.xlsx
+++ b/08-agosto/6-portal-cliente/SINDICATO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196D601-768F-4857-ADBF-CBFE008B04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE30848-D333-4707-8B9C-8704E3E7730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="375" windowWidth="6015" windowHeight="15075" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,12 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,12 +167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C29"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,26 +515,26 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>27493.86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>6660.32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>10809.75</v>
       </c>
       <c r="C6" s="1">
@@ -542,37 +542,33 @@
         <v>44963.93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>26113.66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>6327.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="4">
         <v>10809.75</v>
       </c>
       <c r="C11" s="1">
@@ -580,37 +576,33 @@
         <v>43250.81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>134626.22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="4">
         <v>32648.87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <v>43239</v>
       </c>
       <c r="C16" s="1">
@@ -618,38 +610,34 @@
         <v>210514.09</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="4">
         <v>13121.78</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="4">
         <v>3182.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>0</v>
       </c>
       <c r="C21" s="1">
@@ -657,37 +645,33 @@
         <v>16304.02</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="4">
         <v>76469.649999999994</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="4">
         <v>9272.52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="4">
         <v>5404.88</v>
       </c>
     </row>
